--- a/ibm-mq-practice/data-flow-info.xlsx
+++ b/ibm-mq-practice/data-flow-info.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam Yadav\Desktop\SMTB\SMTB POC\smtb-ibm-mq-poc\ibm-mq-client-server\ibm-mq-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03FA8C7-45C9-4A97-87C0-E12482BF85BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38DA0CD-8179-496D-A4A7-8F326154C37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XML" sheetId="1" r:id="rId1"/>
-    <sheet name="metadata" sheetId="2" r:id="rId2"/>
+    <sheet name="mq_staging_db" sheetId="2" r:id="rId2"/>
+    <sheet name="Meta_Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
-  <si>
-    <t>send XML</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>IBM MQ</t>
   </si>
@@ -49,9 +47,6 @@
     <t>Record type</t>
   </si>
   <si>
-    <t>Consume XML</t>
-  </si>
-  <si>
     <t>Sender App</t>
   </si>
   <si>
@@ -164,16 +159,107 @@
   </si>
   <si>
     <t>xml_file_node</t>
+  </si>
+  <si>
+    <t>☑️</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>send XML File</t>
+  </si>
+  <si>
+    <t>send XML FIle</t>
+  </si>
+  <si>
+    <t>Consume XMLFile Message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET </t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>qmgr</t>
+  </si>
+  <si>
+    <t>private int id;</t>
+  </si>
+  <si>
+    <t>private String qmgr;</t>
+  </si>
+  <si>
+    <t>private String queueName;</t>
+  </si>
+  <si>
+    <t>private String fileName;</t>
+  </si>
+  <si>
+    <t>private JSONObject jsonRsp;</t>
+  </si>
+  <si>
+    <t>private Date dateOfArrival;</t>
+  </si>
+  <si>
+    <t>DB Column</t>
+  </si>
+  <si>
+    <t>Java Entity Attributes</t>
+  </si>
+  <si>
+    <t>arrival_date</t>
+  </si>
+  <si>
+    <t>file_cntnt</t>
+  </si>
+  <si>
+    <t>mq_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -269,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -277,6 +363,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,13 +387,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,246 +682,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="70.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="7">
-        <v>2</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="7">
-        <v>3</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="7">
-        <v>4</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="13"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="G9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="7">
+      <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="13"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4">
         <v>3</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="7">
-        <v>3</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="7">
-        <v>4</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="B9:B15"/>
@@ -822,7 +948,6 @@
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="D2:D8"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -831,167 +956,247 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1986412C-DF0C-4CD1-92F1-E5C0F3B7F4B1}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.7265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76A6825-6ABE-483B-B403-E9CF60C759CB}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="1"/>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="1"/>
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
